--- a/docs/StructureDefinition-VAFinishedOutpatientMedicationPartial.xlsx
+++ b/docs/StructureDefinition-VAFinishedOutpatientMedicationPartial.xlsx
@@ -339,6 +339,62 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>medicationdispense-fillRequestDate</t>
+  </si>
+  <si>
+    <t>LOGIN DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-fillRequestDate}
+</t>
+  </si>
+  <si>
+    <t>This is the date that the prescription was entered.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @LOGIN DATE 52.2-.08</t>
+  </si>
+  <si>
+    <t>richAnnotation-comment-text</t>
+  </si>
+  <si>
+    <t>REMARKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/richAnnotation.comment.text}
+</t>
+  </si>
+  <si>
+    <t>These are any additional comments.</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @REMARKS 52.2-.03</t>
+  </si>
+  <si>
+    <t>medicationdispense-dispenseChannel</t>
+  </si>
+  <si>
+    <t>MAIL/WINDOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-dispenseChannel}
+</t>
+  </si>
+  <si>
+    <t>This field tells whether the medication was picked up  or mailed to the patient.</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @MAIL/WINDOW 52.2-.02</t>
+  </si>
+  <si>
     <t>medicationdispense-fillDate</t>
   </si>
   <si>
@@ -352,63 +408,7 @@
     <t>This is the date the partial was made.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>PRESCRIPTION @PARTIAL DATE 52.2-.01</t>
-  </si>
-  <si>
-    <t>medicationdispense-dispenseChannel</t>
-  </si>
-  <si>
-    <t>MAIL/WINDOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-dispenseChannel}
-</t>
-  </si>
-  <si>
-    <t>This field tells whether the medication was picked up  or mailed to the patient.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @MAIL/WINDOW 52.2-.02</t>
-  </si>
-  <si>
-    <t>richAnnotation/comment/text</t>
-  </si>
-  <si>
-    <t>REMARKS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/richAnnotation.comment.text}
-</t>
-  </si>
-  <si>
-    <t>These are any additional comments.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @REMARKS 52.2-.03</t>
-  </si>
-  <si>
-    <t>medicationdispense-fillRequestDate</t>
-  </si>
-  <si>
-    <t>LOGIN DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-fillRequestDate}
-</t>
-  </si>
-  <si>
-    <t>This is the date that the prescription was entered.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @LOGIN DATE 52.2-.08</t>
   </si>
   <si>
     <t>MedicationDispense.modifierExtension</t>

--- a/docs/StructureDefinition-VAFinishedOutpatientMedicationPartial.xlsx
+++ b/docs/StructureDefinition-VAFinishedOutpatientMedicationPartial.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="394">
   <si>
     <t>Path</t>
   </si>
@@ -339,6 +339,33 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>medicationdispense-fillDate</t>
+  </si>
+  <si>
+    <t>PARTIAL DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-fillDate}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>This is the date the partial was made.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @PARTIAL DATE 52.2-.01</t>
+  </si>
+  <si>
     <t>medicationdispense-fillRequestDate</t>
   </si>
   <si>
@@ -352,14 +379,6 @@
     <t>This is the date that the prescription was entered.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>PRESCRIPTION @LOGIN DATE 52.2-.08</t>
   </si>
   <si>
@@ -393,22 +412,6 @@
   </si>
   <si>
     <t>PRESCRIPTION @MAIL/WINDOW 52.2-.02</t>
-  </si>
-  <si>
-    <t>medicationdispense-fillDate</t>
-  </si>
-  <si>
-    <t>PARTIAL DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-fillDate}
-</t>
-  </si>
-  <si>
-    <t>This is the date the partial was made.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @PARTIAL DATE 52.2-.01</t>
   </si>
   <si>
     <t>MedicationDispense.modifierExtension</t>
@@ -2505,10 +2508,10 @@
         <v>105</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2568,19 +2571,19 @@
         <v>43</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>41</v>
@@ -2594,13 +2597,13 @@
         <v>96</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s" s="2">
         <v>42</v>
@@ -2618,13 +2621,13 @@
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2684,19 +2687,19 @@
         <v>43</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>41</v>
@@ -2710,13 +2713,13 @@
         <v>96</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E12" t="s" s="2">
         <v>42</v>
@@ -2734,13 +2737,13 @@
         <v>41</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>98</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2800,13 +2803,13 @@
         <v>43</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>41</v>
@@ -2826,13 +2829,13 @@
         <v>96</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s" s="2">
         <v>42</v>
@@ -2850,13 +2853,13 @@
         <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2916,19 +2919,19 @@
         <v>43</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>41</v>
@@ -2939,11 +2942,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2965,13 +2968,13 @@
         <v>97</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3021,7 +3024,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -3053,7 +3056,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3076,13 +3079,13 @@
         <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3133,7 +3136,7 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3151,13 +3154,13 @@
         <v>41</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>41</v>
@@ -3165,7 +3168,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3188,13 +3191,13 @@
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3245,7 +3248,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3263,10 +3266,10 @@
         <v>41</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>41</v>
@@ -3277,7 +3280,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3303,13 +3306,13 @@
         <v>71</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3335,13 +3338,13 @@
         <v>41</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>41</v>
@@ -3359,7 +3362,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3377,13 +3380,13 @@
         <v>41</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>41</v>
@@ -3391,7 +3394,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3414,13 +3417,13 @@
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3447,13 +3450,13 @@
         <v>41</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>41</v>
@@ -3471,7 +3474,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3492,7 +3495,7 @@
         <v>41</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>41</v>
@@ -3503,7 +3506,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3526,16 +3529,16 @@
         <v>53</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3561,13 +3564,13 @@
         <v>41</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>41</v>
@@ -3585,7 +3588,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>52</v>
@@ -3603,21 +3606,21 @@
         <v>41</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3640,16 +3643,16 @@
         <v>53</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3699,7 +3702,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3717,21 +3720,21 @@
         <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3754,13 +3757,13 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3811,7 +3814,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3829,10 +3832,10 @@
         <v>41</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>41</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3866,13 +3869,13 @@
         <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3923,7 +3926,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3944,10 +3947,10 @@
         <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>41</v>
@@ -3955,7 +3958,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3978,16 +3981,16 @@
         <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4037,7 +4040,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4049,16 +4052,16 @@
         <v>41</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>41</v>
@@ -4069,7 +4072,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4092,13 +4095,13 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4149,7 +4152,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4170,7 +4173,7 @@
         <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>41</v>
@@ -4181,11 +4184,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4207,13 +4210,13 @@
         <v>97</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4263,7 +4266,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4284,7 +4287,7 @@
         <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>41</v>
@@ -4295,11 +4298,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4321,13 +4324,13 @@
         <v>97</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4377,7 +4380,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4409,14 +4412,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E27" t="s" s="2">
         <v>52</v>
@@ -4434,13 +4437,13 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4491,7 +4494,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>52</v>
@@ -4506,13 +4509,13 @@
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>41</v>
@@ -4523,7 +4526,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4546,13 +4549,13 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4603,7 +4606,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4621,10 +4624,10 @@
         <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>41</v>
@@ -4635,7 +4638,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4658,16 +4661,16 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4717,7 +4720,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4735,21 +4738,21 @@
         <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4772,13 +4775,13 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4805,13 +4808,13 @@
         <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>41</v>
@@ -4829,7 +4832,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4850,25 +4853,25 @@
         <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E31" t="s" s="2">
         <v>42</v>
@@ -4886,13 +4889,13 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4943,7 +4946,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4958,24 +4961,24 @@
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4998,13 +5001,13 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5055,7 +5058,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5076,18 +5079,18 @@
         <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5110,13 +5113,13 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5167,7 +5170,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5188,7 +5191,7 @@
         <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>41</v>
@@ -5199,11 +5202,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5225,13 +5228,13 @@
         <v>97</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5272,7 +5275,7 @@
         <v>100</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>41</v>
@@ -5281,7 +5284,7 @@
         <v>101</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5302,7 +5305,7 @@
         <v>41</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>41</v>
@@ -5313,14 +5316,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E35" t="s" s="2">
         <v>42</v>
@@ -5338,19 +5341,19 @@
         <v>53</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>41</v>
@@ -5399,7 +5402,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5414,24 +5417,24 @@
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5457,22 +5460,22 @@
         <v>71</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q36" t="s" s="2">
         <v>41</v>
@@ -5493,13 +5496,13 @@
         <v>41</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>41</v>
@@ -5517,7 +5520,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5538,18 +5541,18 @@
         <v>41</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5572,24 +5575,24 @@
         <v>53</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>41</v>
@@ -5631,7 +5634,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5652,18 +5655,18 @@
         <v>41</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5689,14 +5692,14 @@
         <v>65</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>41</v>
@@ -5745,7 +5748,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5754,7 +5757,7 @@
         <v>52</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>41</v>
@@ -5766,18 +5769,18 @@
         <v>41</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5803,16 +5806,16 @@
         <v>71</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -5861,7 +5864,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5882,25 +5885,25 @@
         <v>41</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E40" t="s" s="2">
         <v>42</v>
@@ -5918,13 +5921,13 @@
         <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5975,7 +5978,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5990,24 +5993,24 @@
         <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6030,13 +6033,13 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6087,7 +6090,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6105,21 +6108,21 @@
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6142,13 +6145,13 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6199,7 +6202,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6220,18 +6223,18 @@
         <v>41</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6254,13 +6257,13 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6311,7 +6314,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6332,7 +6335,7 @@
         <v>41</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>41</v>
@@ -6343,7 +6346,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6366,13 +6369,13 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6423,7 +6426,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6441,21 +6444,21 @@
         <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6478,16 +6481,16 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6537,7 +6540,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6558,7 +6561,7 @@
         <v>41</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>41</v>
@@ -6569,7 +6572,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6592,13 +6595,13 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6649,7 +6652,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6661,7 +6664,7 @@
         <v>41</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>41</v>
@@ -6670,7 +6673,7 @@
         <v>41</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>41</v>
@@ -6681,7 +6684,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6704,13 +6707,13 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6761,7 +6764,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6782,7 +6785,7 @@
         <v>41</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>41</v>
@@ -6793,11 +6796,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6819,13 +6822,13 @@
         <v>97</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6875,7 +6878,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -6896,7 +6899,7 @@
         <v>41</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>41</v>
@@ -6907,11 +6910,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6933,13 +6936,13 @@
         <v>97</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6989,7 +6992,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7021,7 +7024,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7044,13 +7047,13 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7101,7 +7104,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>52</v>
@@ -7122,7 +7125,7 @@
         <v>41</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>41</v>
@@ -7133,7 +7136,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7156,13 +7159,13 @@
         <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7189,13 +7192,13 @@
         <v>41</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>41</v>
@@ -7213,7 +7216,7 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7234,18 +7237,18 @@
         <v>41</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7268,13 +7271,13 @@
         <v>41</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7301,13 +7304,13 @@
         <v>41</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>41</v>
@@ -7325,7 +7328,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7346,7 +7349,7 @@
         <v>41</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>41</v>
@@ -7357,7 +7360,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7380,13 +7383,13 @@
         <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7437,7 +7440,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7458,7 +7461,7 @@
         <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>41</v>
@@ -7469,11 +7472,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7492,13 +7495,13 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7549,7 +7552,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7570,7 +7573,7 @@
         <v>41</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>41</v>
@@ -7581,7 +7584,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7604,13 +7607,13 @@
         <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7661,7 +7664,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7679,10 +7682,10 @@
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>41</v>
@@ -7693,7 +7696,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7716,13 +7719,13 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7773,7 +7776,7 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -7791,10 +7794,10 @@
         <v>41</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>41</v>
@@ -7805,7 +7808,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7828,16 +7831,16 @@
         <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7887,7 +7890,7 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -7908,7 +7911,7 @@
         <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>41</v>

--- a/docs/StructureDefinition-VAFinishedOutpatientMedicationPartial.xlsx
+++ b/docs/StructureDefinition-VAFinishedOutpatientMedicationPartial.xlsx
@@ -339,6 +339,65 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>medicationdispense-fillRequestDate</t>
+  </si>
+  <si>
+    <t>LOGIN DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-fillRequestDate}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>This is the date that the prescription was entered.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @LOGIN DATE 52.2-.08</t>
+  </si>
+  <si>
+    <t>richAnnotation-comment-text</t>
+  </si>
+  <si>
+    <t>REMARKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/richAnnotation.comment.text}
+</t>
+  </si>
+  <si>
+    <t>These are any additional comments.</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @REMARKS 52.2-.03</t>
+  </si>
+  <si>
+    <t>medicationdispense-dispenseChannel</t>
+  </si>
+  <si>
+    <t>MAIL/WINDOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-dispenseChannel}
+</t>
+  </si>
+  <si>
+    <t>This field tells whether the medication was picked up  or mailed to the patient.</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @MAIL/WINDOW 52.2-.02</t>
+  </si>
+  <si>
     <t>medicationdispense-fillDate</t>
   </si>
   <si>
@@ -349,69 +408,10 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
     <t>This is the date the partial was made.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>PRESCRIPTION @PARTIAL DATE 52.2-.01</t>
-  </si>
-  <si>
-    <t>medicationdispense-fillRequestDate</t>
-  </si>
-  <si>
-    <t>LOGIN DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-fillRequestDate}
-</t>
-  </si>
-  <si>
-    <t>This is the date that the prescription was entered.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @LOGIN DATE 52.2-.08</t>
-  </si>
-  <si>
-    <t>richAnnotation-comment-text</t>
-  </si>
-  <si>
-    <t>REMARKS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/richAnnotation.comment.text}
-</t>
-  </si>
-  <si>
-    <t>These are any additional comments.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @REMARKS 52.2-.03</t>
-  </si>
-  <si>
-    <t>medicationdispense-dispenseChannel</t>
-  </si>
-  <si>
-    <t>MAIL/WINDOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-dispenseChannel}
-</t>
-  </si>
-  <si>
-    <t>This field tells whether the medication was picked up  or mailed to the patient.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @MAIL/WINDOW 52.2-.02</t>
   </si>
   <si>
     <t>MedicationDispense.modifierExtension</t>
@@ -2624,7 +2624,7 @@
         <v>113</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>114</v>
@@ -2699,7 +2699,7 @@
         <v>41</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>41</v>
@@ -2740,7 +2740,7 @@
         <v>118</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>119</v>
@@ -2815,7 +2815,7 @@
         <v>41</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>41</v>
